--- a/Code/Results/Cases/Case_3_133/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_133/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02386713234236</v>
+        <v>0.4989461819719736</v>
       </c>
       <c r="C2">
-        <v>0.1410456858974811</v>
+        <v>0.0404019331877663</v>
       </c>
       <c r="D2">
-        <v>0.2192228791692088</v>
+        <v>0.1909478522560306</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.596002321682803</v>
+        <v>2.175508508893301</v>
       </c>
       <c r="G2">
-        <v>1.151213521289051</v>
+        <v>1.418337656500086</v>
       </c>
       <c r="H2">
-        <v>0.7585957707627529</v>
+        <v>1.298171009469414</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.4293507618627359</v>
+        <v>0.3526515705529079</v>
       </c>
       <c r="K2">
-        <v>1.070096908401013</v>
+        <v>0.4620232397049335</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8869782004407227</v>
+        <v>0.462941803881165</v>
       </c>
       <c r="C3">
-        <v>0.1233114028334654</v>
+        <v>0.03537573479238176</v>
       </c>
       <c r="D3">
-        <v>0.1913067226447112</v>
+        <v>0.1847165571442417</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.501309347488728</v>
+        <v>2.1627496005691</v>
       </c>
       <c r="G3">
-        <v>1.08813271088259</v>
+        <v>1.409119869404719</v>
       </c>
       <c r="H3">
-        <v>0.7373656631214658</v>
+        <v>1.298983183337455</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3791085800005476</v>
+        <v>0.3416669979795302</v>
       </c>
       <c r="K3">
-        <v>0.9263392867732421</v>
+        <v>0.423578982694238</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8036421195905632</v>
+        <v>0.4410751624911882</v>
       </c>
       <c r="C4">
-        <v>0.1124695279078196</v>
+        <v>0.03229114955651369</v>
       </c>
       <c r="D4">
-        <v>0.1743508657479396</v>
+        <v>0.1809899590142692</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.4459145793451</v>
+        <v>2.156011681520596</v>
       </c>
       <c r="G4">
-        <v>1.051560908001392</v>
+        <v>1.404225733491941</v>
       </c>
       <c r="H4">
-        <v>0.7255379840081133</v>
+        <v>1.300020387925741</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3488809709937897</v>
+        <v>0.3351351592464198</v>
       </c>
       <c r="K4">
-        <v>0.8387337451769099</v>
+        <v>0.4001730939467905</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7698355658316416</v>
+        <v>0.4322249208199196</v>
       </c>
       <c r="C5">
-        <v>0.1080599072752477</v>
+        <v>0.03103455164888658</v>
       </c>
       <c r="D5">
-        <v>0.1674822493059338</v>
+        <v>0.1794964067395028</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.423984774434402</v>
+        <v>2.153541180616074</v>
       </c>
       <c r="G5">
-        <v>1.037163663759429</v>
+        <v>1.402423407009834</v>
       </c>
       <c r="H5">
-        <v>0.7210049311865134</v>
+        <v>1.300578382805242</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3367035927862361</v>
+        <v>0.3325267429686107</v>
       </c>
       <c r="K5">
-        <v>0.8031731990339779</v>
+        <v>0.3906852377398877</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7642305606839557</v>
+        <v>0.430759010409389</v>
       </c>
       <c r="C6">
-        <v>0.1073281165109705</v>
+        <v>0.0308259188315958</v>
       </c>
       <c r="D6">
-        <v>0.1663440471660351</v>
+        <v>0.1792499193222596</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.420380932650474</v>
+        <v>2.153147569903894</v>
       </c>
       <c r="G6">
-        <v>1.03480253679821</v>
+        <v>1.40213571975319</v>
       </c>
       <c r="H6">
-        <v>0.720269071899807</v>
+        <v>1.300679208119192</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3346896044310625</v>
+        <v>0.3320968364780583</v>
       </c>
       <c r="K6">
-        <v>0.7972760609098088</v>
+        <v>0.3891128259788843</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8031856039163188</v>
+        <v>0.4409555594410222</v>
       </c>
       <c r="C7">
-        <v>0.112410027865181</v>
+        <v>0.03227420101750056</v>
       </c>
       <c r="D7">
-        <v>0.174258073958697</v>
+        <v>0.1809697148695477</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.445616278392095</v>
+        <v>2.15597724947709</v>
       </c>
       <c r="G7">
-        <v>1.051364740033719</v>
+        <v>1.404200649588191</v>
       </c>
       <c r="H7">
-        <v>0.7254757098408788</v>
+        <v>1.300027365439746</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3487161931431046</v>
+        <v>0.3350997653476639</v>
       </c>
       <c r="K7">
-        <v>0.8382536331804999</v>
+        <v>0.4000449337586076</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9765033235460692</v>
+        <v>0.4864821230740688</v>
       </c>
       <c r="C8">
-        <v>0.1349190741267847</v>
+        <v>0.03866859040236648</v>
       </c>
       <c r="D8">
-        <v>0.2095556470406024</v>
+        <v>0.1887786963554277</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.562752902042263</v>
+        <v>2.170881510315766</v>
       </c>
       <c r="G8">
-        <v>1.128991837378905</v>
+        <v>1.415000182566004</v>
       </c>
       <c r="H8">
-        <v>0.7510144752586427</v>
+        <v>1.298339218188943</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.4118885708705022</v>
+        <v>0.3488198528518893</v>
       </c>
       <c r="K8">
-        <v>1.02037490602666</v>
+        <v>0.4487264444219363</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.323329292450154</v>
+        <v>0.57766218860408</v>
       </c>
       <c r="C9">
-        <v>0.1795963393087732</v>
+        <v>0.05122013690791505</v>
       </c>
       <c r="D9">
-        <v>0.2805078497935227</v>
+        <v>0.2048795007577979</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.816536691537166</v>
+        <v>2.208826524726788</v>
       </c>
       <c r="G9">
-        <v>1.300166223002634</v>
+        <v>1.442275853818799</v>
       </c>
       <c r="H9">
-        <v>0.8115004179919936</v>
+        <v>1.299307064981946</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.5414648078750872</v>
+        <v>0.3774206861827309</v>
       </c>
       <c r="K9">
-        <v>1.38410592602591</v>
+        <v>0.5457675478942008</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.58434036499861</v>
+        <v>0.6458156235416084</v>
       </c>
       <c r="C10">
-        <v>0.2130006324864127</v>
+        <v>0.06045031803580514</v>
       </c>
       <c r="D10">
-        <v>0.3341025614559783</v>
+        <v>0.2171882094773707</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.02113180431796</v>
+        <v>2.242053985755348</v>
       </c>
       <c r="G10">
-        <v>1.440219532051202</v>
+        <v>1.466068381881712</v>
       </c>
       <c r="H10">
-        <v>0.8635279602512185</v>
+        <v>1.302635447806153</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.6413034656457484</v>
+        <v>0.399481060414999</v>
       </c>
       <c r="K10">
-        <v>1.657404988657618</v>
+        <v>0.6180297960451924</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.704911000225763</v>
+        <v>0.6770743509907504</v>
       </c>
       <c r="C11">
-        <v>0.2283860944492488</v>
+        <v>0.0646515462299817</v>
       </c>
       <c r="D11">
-        <v>0.3589035984276734</v>
+        <v>0.2228918660985642</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.118999764541712</v>
+        <v>2.25833943219385</v>
       </c>
       <c r="G11">
-        <v>1.507712362082003</v>
+        <v>1.477715106877355</v>
       </c>
       <c r="H11">
-        <v>0.8891517997950302</v>
+        <v>1.304720045255834</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.6880188521508188</v>
+        <v>0.4097474163428672</v>
       </c>
       <c r="K11">
-        <v>1.783559554639055</v>
+        <v>0.6511152044209609</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.750876223996329</v>
+        <v>0.6889478890749388</v>
       </c>
       <c r="C12">
-        <v>0.2342452806645525</v>
+        <v>0.06624278938339501</v>
       </c>
       <c r="D12">
-        <v>0.3683648374885706</v>
+        <v>0.2250666680997995</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.156828366106538</v>
+        <v>2.264675091412187</v>
       </c>
       <c r="G12">
-        <v>1.533876432682348</v>
+        <v>1.482244385296241</v>
       </c>
       <c r="H12">
-        <v>0.8991646399531419</v>
+        <v>1.305591607975487</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.7059221363221582</v>
+        <v>0.4136684292875117</v>
       </c>
       <c r="K12">
-        <v>1.831640566496219</v>
+        <v>0.6636743757102579</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.740962360006279</v>
+        <v>0.686389088175531</v>
       </c>
       <c r="C13">
-        <v>0.2329818319204264</v>
+        <v>0.06590007223749694</v>
       </c>
       <c r="D13">
-        <v>0.3663239383996597</v>
+        <v>0.2245976215081384</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.148645806147726</v>
+        <v>2.263303082975568</v>
       </c>
       <c r="G13">
-        <v>1.52821352407932</v>
+        <v>1.481263627100446</v>
       </c>
       <c r="H13">
-        <v>0.8969939425446114</v>
+        <v>1.305400244629993</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.7020564118684547</v>
+        <v>0.4128224825620066</v>
       </c>
       <c r="K13">
-        <v>1.821270936089064</v>
+        <v>0.6609681821514073</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.708686152996108</v>
+        <v>0.6780504629292636</v>
       </c>
       <c r="C14">
-        <v>0.228867435712246</v>
+        <v>0.06478245222879764</v>
       </c>
       <c r="D14">
-        <v>0.3596805292464751</v>
+        <v>0.2230704890453126</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.122096075420231</v>
+        <v>2.258857286799881</v>
       </c>
       <c r="G14">
-        <v>1.509852372793517</v>
+        <v>1.47808534712496</v>
       </c>
       <c r="H14">
-        <v>0.8899691840239825</v>
+        <v>1.304790101647512</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.6894873323637967</v>
+        <v>0.4100693308420631</v>
       </c>
       <c r="K14">
-        <v>1.787508735831466</v>
+        <v>0.6521478458251124</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.68895749450212</v>
+        <v>0.672947566818749</v>
       </c>
       <c r="C15">
-        <v>0.2263517343832575</v>
+        <v>0.06409792023899286</v>
       </c>
       <c r="D15">
-        <v>0.3556206034160141</v>
+        <v>0.2221370217326637</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.105936089340915</v>
+        <v>2.256156093344998</v>
       </c>
       <c r="G15">
-        <v>1.498686506020675</v>
+        <v>1.476154060591085</v>
       </c>
       <c r="H15">
-        <v>0.8857075308119704</v>
+        <v>1.30442707652216</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.6818170024209707</v>
+        <v>0.4083872957928776</v>
       </c>
       <c r="K15">
-        <v>1.766870097493637</v>
+        <v>0.6467490948647594</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.576501372802852</v>
+        <v>0.6437779150507481</v>
       </c>
       <c r="C16">
-        <v>0.2119994528296871</v>
+        <v>0.0601758045893348</v>
       </c>
       <c r="D16">
-        <v>0.3324909798861739</v>
+        <v>0.2168175573173556</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.014838951433674</v>
+        <v>2.241013277842825</v>
       </c>
       <c r="G16">
-        <v>1.435889995968665</v>
+        <v>1.46532385359356</v>
       </c>
       <c r="H16">
-        <v>0.8618951070685057</v>
+        <v>1.302510705774068</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.6382788347809054</v>
+        <v>0.3988147907959672</v>
       </c>
       <c r="K16">
-        <v>1.649201129703414</v>
+        <v>0.6158718566427126</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.50801313792428</v>
+        <v>0.6259485540108471</v>
       </c>
       <c r="C17">
-        <v>0.2032472941078112</v>
+        <v>0.05777031251214737</v>
       </c>
       <c r="D17">
-        <v>0.3184156516328756</v>
+        <v>0.2135809276675218</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.960235757038959</v>
+        <v>2.232023665938797</v>
       </c>
       <c r="G17">
-        <v>1.398377371520297</v>
+        <v>1.458891126888744</v>
       </c>
       <c r="H17">
-        <v>0.8478073109239119</v>
+        <v>1.301481287784611</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.6119201331612203</v>
+        <v>0.3930016364583082</v>
       </c>
       <c r="K17">
-        <v>1.577514891418559</v>
+        <v>0.5969840849172385</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.468790410031318</v>
+        <v>0.6157176263568829</v>
       </c>
       <c r="C18">
-        <v>0.1982307582615732</v>
+        <v>0.05638696105530983</v>
       </c>
       <c r="D18">
-        <v>0.3103588797033581</v>
+        <v>0.2117291303486724</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.929275803824154</v>
+        <v>2.226963187692121</v>
       </c>
       <c r="G18">
-        <v>1.377153008745296</v>
+        <v>1.45526866263944</v>
       </c>
       <c r="H18">
-        <v>0.8398866624994241</v>
+        <v>1.300942883787314</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.5968797711879148</v>
+        <v>0.389679795693624</v>
       </c>
       <c r="K18">
-        <v>1.536452054836076</v>
+        <v>0.5861403921603596</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.455538180541225</v>
+        <v>0.6122577463430048</v>
       </c>
       <c r="C19">
-        <v>0.1965350805150763</v>
+        <v>0.05591862086781418</v>
       </c>
       <c r="D19">
-        <v>0.3076374261655843</v>
+        <v>0.2111038330342154</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.918867692072709</v>
+        <v>2.225268694212389</v>
       </c>
       <c r="G19">
-        <v>1.370025446956419</v>
+        <v>1.454055448376664</v>
       </c>
       <c r="H19">
-        <v>0.8372353544283726</v>
+        <v>1.300769806708018</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.5918072883556533</v>
+        <v>0.3885588053477562</v>
       </c>
       <c r="K19">
-        <v>1.522576615193799</v>
+        <v>0.5824723538829915</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.515285940135868</v>
+        <v>0.6278440323041536</v>
       </c>
       <c r="C20">
-        <v>0.2041771279256608</v>
+        <v>0.05802635816097279</v>
       </c>
       <c r="D20">
-        <v>0.3199098961044058</v>
+        <v>0.2139244558313749</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.966001620021544</v>
+        <v>2.23296922634006</v>
       </c>
       <c r="G20">
-        <v>1.402333802182369</v>
+        <v>1.459567880041334</v>
       </c>
       <c r="H20">
-        <v>0.8492879191009024</v>
+        <v>1.301585313400182</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.6147134106282266</v>
+        <v>0.3936182064021523</v>
       </c>
       <c r="K20">
-        <v>1.585128184628928</v>
+        <v>0.5989926462506219</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.718157734861705</v>
+        <v>0.6804987291801581</v>
       </c>
       <c r="C21">
-        <v>0.2300749877403945</v>
+        <v>0.0651107154722439</v>
       </c>
       <c r="D21">
-        <v>0.3616298925475405</v>
+        <v>0.2235186395430162</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.129872865057635</v>
+        <v>2.260158542420655</v>
       </c>
       <c r="G21">
-        <v>1.515228515368335</v>
+        <v>1.479015653530752</v>
       </c>
       <c r="H21">
-        <v>0.8920238822957174</v>
+        <v>1.304967084263779</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.6931731655865718</v>
+        <v>0.410877091456868</v>
       </c>
       <c r="K21">
-        <v>1.797416736984161</v>
+        <v>0.654737767516707</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.852563444724694</v>
+        <v>0.7151244960287784</v>
       </c>
       <c r="C22">
-        <v>0.2471964835129086</v>
+        <v>0.0697426665928873</v>
       </c>
       <c r="D22">
-        <v>0.3893070619958792</v>
+        <v>0.2298761140578165</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.241491549639122</v>
+        <v>2.278911939674046</v>
       </c>
       <c r="G22">
-        <v>1.592577377906338</v>
+        <v>1.492419273342136</v>
       </c>
       <c r="H22">
-        <v>0.9217744089480391</v>
+        <v>1.307656284960331</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.7457080175503563</v>
+        <v>0.4223513292312617</v>
       </c>
       <c r="K22">
-        <v>1.937985468938649</v>
+        <v>0.6913478069147345</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.780646686751368</v>
+        <v>0.6966246549787058</v>
       </c>
       <c r="C23">
-        <v>0.2380384384447041</v>
+        <v>0.0672703356534754</v>
       </c>
       <c r="D23">
-        <v>0.374494389018281</v>
+        <v>0.2264750569510738</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.181477076423022</v>
+        <v>2.268812747793262</v>
       </c>
       <c r="G23">
-        <v>1.550946398870451</v>
+        <v>1.485201894944225</v>
       </c>
       <c r="H23">
-        <v>0.905719339477713</v>
+        <v>1.306177133236844</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.717544707006752</v>
+        <v>0.4162094598240031</v>
       </c>
       <c r="K23">
-        <v>1.862777822479273</v>
+        <v>0.6717921663960169</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.511997435849025</v>
+        <v>0.6269870260968275</v>
       </c>
       <c r="C24">
-        <v>0.2037567031505318</v>
+        <v>0.05791060117502411</v>
       </c>
       <c r="D24">
-        <v>0.3192342388400391</v>
+        <v>0.2137691187601831</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.963393533145066</v>
+        <v>2.232541402807882</v>
       </c>
       <c r="G24">
-        <v>1.400544038800405</v>
+        <v>1.459261683870722</v>
       </c>
       <c r="H24">
-        <v>0.8486179819119855</v>
+        <v>1.30153811701004</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.6134502179951085</v>
+        <v>0.3933393921664248</v>
       </c>
       <c r="K24">
-        <v>1.581685749296696</v>
+        <v>0.5980845285059218</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.228567354345273</v>
+        <v>0.5527915296316905</v>
       </c>
       <c r="C25">
-        <v>0.1674278193215599</v>
+        <v>0.04782319403092572</v>
       </c>
       <c r="D25">
-        <v>0.2610876791778196</v>
+        <v>0.2004395734313249</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.744964264778133</v>
+        <v>2.197624519140916</v>
       </c>
       <c r="G25">
-        <v>1.251561827843531</v>
+        <v>1.434240561752958</v>
       </c>
       <c r="H25">
-        <v>0.7939014025161413</v>
+        <v>1.298586275214603</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.5056870124875417</v>
+        <v>0.3695004628256129</v>
       </c>
       <c r="K25">
-        <v>1.284800822616972</v>
+        <v>0.5193460679453494</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_133/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_133/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4989461819719736</v>
+        <v>1.023867132342332</v>
       </c>
       <c r="C2">
-        <v>0.0404019331877663</v>
+        <v>0.141045685897339</v>
       </c>
       <c r="D2">
-        <v>0.1909478522560306</v>
+        <v>0.2192228791692088</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.175508508893301</v>
+        <v>1.596002321682803</v>
       </c>
       <c r="G2">
-        <v>1.418337656500086</v>
+        <v>1.15121352128908</v>
       </c>
       <c r="H2">
-        <v>1.298171009469414</v>
+        <v>0.7585957707626392</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.3526515705529079</v>
+        <v>0.4293507618627075</v>
       </c>
       <c r="K2">
-        <v>0.4620232397049335</v>
+        <v>1.070096908401013</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.462941803881165</v>
+        <v>0.8869782004407227</v>
       </c>
       <c r="C3">
-        <v>0.03537573479238176</v>
+        <v>0.1233114028335933</v>
       </c>
       <c r="D3">
-        <v>0.1847165571442417</v>
+        <v>0.1913067226445406</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.1627496005691</v>
+        <v>1.501309347488743</v>
       </c>
       <c r="G3">
-        <v>1.409119869404719</v>
+        <v>1.088132710882604</v>
       </c>
       <c r="H3">
-        <v>1.298983183337455</v>
+        <v>0.73736566312148</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3416669979795302</v>
+        <v>0.3791085800006186</v>
       </c>
       <c r="K3">
-        <v>0.423578982694238</v>
+        <v>0.9263392867732136</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4410751624911882</v>
+        <v>0.8036421195905916</v>
       </c>
       <c r="C4">
-        <v>0.03229114955651369</v>
+        <v>0.1124695279077059</v>
       </c>
       <c r="D4">
-        <v>0.1809899590142692</v>
+        <v>0.174350865747698</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.156011681520596</v>
+        <v>1.445914579345114</v>
       </c>
       <c r="G4">
-        <v>1.404225733491941</v>
+        <v>1.051560908001449</v>
       </c>
       <c r="H4">
-        <v>1.300020387925741</v>
+        <v>0.7255379840082412</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3351351592464198</v>
+        <v>0.3488809709938607</v>
       </c>
       <c r="K4">
-        <v>0.4001730939467905</v>
+        <v>0.8387337451768815</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4322249208199196</v>
+        <v>0.7698355658316984</v>
       </c>
       <c r="C5">
-        <v>0.03103455164888658</v>
+        <v>0.1080599072751198</v>
       </c>
       <c r="D5">
-        <v>0.1794964067395028</v>
+        <v>0.1674822493057633</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.153541180616074</v>
+        <v>1.423984774434402</v>
       </c>
       <c r="G5">
-        <v>1.402423407009834</v>
+        <v>1.037163663759387</v>
       </c>
       <c r="H5">
-        <v>1.300578382805242</v>
+        <v>0.7210049311863855</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3325267429686107</v>
+        <v>0.3367035927861366</v>
       </c>
       <c r="K5">
-        <v>0.3906852377398877</v>
+        <v>0.8031731990339779</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.430759010409389</v>
+        <v>0.764230560683842</v>
       </c>
       <c r="C6">
-        <v>0.0308259188315958</v>
+        <v>0.107328116510601</v>
       </c>
       <c r="D6">
-        <v>0.1792499193222596</v>
+        <v>0.1663440471659356</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.153147569903894</v>
+        <v>1.420380932650488</v>
       </c>
       <c r="G6">
-        <v>1.40213571975319</v>
+        <v>1.034802536798267</v>
       </c>
       <c r="H6">
-        <v>1.300679208119192</v>
+        <v>0.7202690718999207</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3320968364780583</v>
+        <v>0.3346896044309915</v>
       </c>
       <c r="K6">
-        <v>0.3891128259788843</v>
+        <v>0.7972760609098088</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4409555594410222</v>
+        <v>0.8031856039160914</v>
       </c>
       <c r="C7">
-        <v>0.03227420101750056</v>
+        <v>0.1124100278649394</v>
       </c>
       <c r="D7">
-        <v>0.1809697148695477</v>
+        <v>0.174258073958967</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.15597724947709</v>
+        <v>1.445616278392052</v>
       </c>
       <c r="G7">
-        <v>1.404200649588191</v>
+        <v>1.051364740033719</v>
       </c>
       <c r="H7">
-        <v>1.300027365439746</v>
+        <v>0.7254757098409783</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3350997653476639</v>
+        <v>0.3487161931430478</v>
       </c>
       <c r="K7">
-        <v>0.4000449337586076</v>
+        <v>0.8382536331805284</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4864821230740688</v>
+        <v>0.9765033235462397</v>
       </c>
       <c r="C8">
-        <v>0.03866859040236648</v>
+        <v>0.1349190741267705</v>
       </c>
       <c r="D8">
-        <v>0.1887786963554277</v>
+        <v>0.2095556470407303</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.170881510315766</v>
+        <v>1.562752902042234</v>
       </c>
       <c r="G8">
-        <v>1.415000182566004</v>
+        <v>1.128991837378891</v>
       </c>
       <c r="H8">
-        <v>1.298339218188943</v>
+        <v>0.7510144752586427</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.3488198528518893</v>
+        <v>0.411888570870488</v>
       </c>
       <c r="K8">
-        <v>0.4487264444219363</v>
+        <v>1.020374906026689</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.57766218860408</v>
+        <v>1.323329292450182</v>
       </c>
       <c r="C9">
-        <v>0.05122013690791505</v>
+        <v>0.1795963393087874</v>
       </c>
       <c r="D9">
-        <v>0.2048795007577979</v>
+        <v>0.2805078497933948</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.208826524726788</v>
+        <v>1.816536691537138</v>
       </c>
       <c r="G9">
-        <v>1.442275853818799</v>
+        <v>1.300166223002662</v>
       </c>
       <c r="H9">
-        <v>1.299307064981946</v>
+        <v>0.8115004179919936</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3774206861827309</v>
+        <v>0.5414648078749877</v>
       </c>
       <c r="K9">
-        <v>0.5457675478942008</v>
+        <v>1.384105926025882</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6458156235416084</v>
+        <v>1.584340364998496</v>
       </c>
       <c r="C10">
-        <v>0.06045031803580514</v>
+        <v>0.2130006324863132</v>
       </c>
       <c r="D10">
-        <v>0.2171882094773707</v>
+        <v>0.3341025614561062</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.242053985755348</v>
+        <v>2.02113180431796</v>
       </c>
       <c r="G10">
-        <v>1.466068381881712</v>
+        <v>1.440219532051231</v>
       </c>
       <c r="H10">
-        <v>1.302635447806153</v>
+        <v>0.8635279602512469</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.399481060414999</v>
+        <v>0.6413034656457626</v>
       </c>
       <c r="K10">
-        <v>0.6180297960451924</v>
+        <v>1.657404988657618</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6770743509907504</v>
+        <v>1.704911000225849</v>
       </c>
       <c r="C11">
-        <v>0.0646515462299817</v>
+        <v>0.2283860944490925</v>
       </c>
       <c r="D11">
-        <v>0.2228918660985642</v>
+        <v>0.358903598427446</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.25833943219385</v>
+        <v>2.118999764541712</v>
       </c>
       <c r="G11">
-        <v>1.477715106877355</v>
+        <v>1.507712362081946</v>
       </c>
       <c r="H11">
-        <v>1.304720045255834</v>
+        <v>0.8891517997950302</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.4097474163428672</v>
+        <v>0.6880188521508046</v>
       </c>
       <c r="K11">
-        <v>0.6511152044209609</v>
+        <v>1.783559554639112</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6889478890749388</v>
+        <v>1.7508762239963</v>
       </c>
       <c r="C12">
-        <v>0.06624278938339501</v>
+        <v>0.234245280664382</v>
       </c>
       <c r="D12">
-        <v>0.2250666680997995</v>
+        <v>0.3683648374884569</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.264675091412187</v>
+        <v>2.156828366106538</v>
       </c>
       <c r="G12">
-        <v>1.482244385296241</v>
+        <v>1.53387643268232</v>
       </c>
       <c r="H12">
-        <v>1.305591607975487</v>
+        <v>0.8991646399531419</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4136684292875117</v>
+        <v>0.7059221363221582</v>
       </c>
       <c r="K12">
-        <v>0.6636743757102579</v>
+        <v>1.831640566496361</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.686389088175531</v>
+        <v>1.740962360006051</v>
       </c>
       <c r="C13">
-        <v>0.06590007223749694</v>
+        <v>0.2329818319204264</v>
       </c>
       <c r="D13">
-        <v>0.2245976215081384</v>
+        <v>0.3663239383996597</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.263303082975568</v>
+        <v>2.148645806147712</v>
       </c>
       <c r="G13">
-        <v>1.481263627100446</v>
+        <v>1.528213524079291</v>
       </c>
       <c r="H13">
-        <v>1.305400244629993</v>
+        <v>0.896993942544583</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4128224825620066</v>
+        <v>0.7020564118683836</v>
       </c>
       <c r="K13">
-        <v>0.6609681821514073</v>
+        <v>1.821270936089036</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6780504629292636</v>
+        <v>1.708686152996023</v>
       </c>
       <c r="C14">
-        <v>0.06478245222879764</v>
+        <v>0.2288674357124307</v>
       </c>
       <c r="D14">
-        <v>0.2230704890453126</v>
+        <v>0.3596805292465035</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.258857286799881</v>
+        <v>2.122096075420217</v>
       </c>
       <c r="G14">
-        <v>1.47808534712496</v>
+        <v>1.509852372793517</v>
       </c>
       <c r="H14">
-        <v>1.304790101647512</v>
+        <v>0.8899691840239825</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.4100693308420631</v>
+        <v>0.6894873323637256</v>
       </c>
       <c r="K14">
-        <v>0.6521478458251124</v>
+        <v>1.787508735831466</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.672947566818749</v>
+        <v>1.688957494502205</v>
       </c>
       <c r="C15">
-        <v>0.06409792023899286</v>
+        <v>0.226351734383087</v>
       </c>
       <c r="D15">
-        <v>0.2221370217326637</v>
+        <v>0.3556206034160709</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.256156093344998</v>
+        <v>2.105936089340915</v>
       </c>
       <c r="G15">
-        <v>1.476154060591085</v>
+        <v>1.498686506020761</v>
       </c>
       <c r="H15">
-        <v>1.30442707652216</v>
+        <v>0.8857075308119704</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.4083872957928776</v>
+        <v>0.6818170024209707</v>
       </c>
       <c r="K15">
-        <v>0.6467490948647594</v>
+        <v>1.766870097493609</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6437779150507481</v>
+        <v>1.576501372802909</v>
       </c>
       <c r="C16">
-        <v>0.0601758045893348</v>
+        <v>0.2119994528298434</v>
       </c>
       <c r="D16">
-        <v>0.2168175573173556</v>
+        <v>0.3324909798861455</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.241013277842825</v>
+        <v>2.014838951433674</v>
       </c>
       <c r="G16">
-        <v>1.46532385359356</v>
+        <v>1.435889995968694</v>
       </c>
       <c r="H16">
-        <v>1.302510705774068</v>
+        <v>0.861895107068392</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3988147907959672</v>
+        <v>0.6382788347809765</v>
       </c>
       <c r="K16">
-        <v>0.6158718566427126</v>
+        <v>1.649201129703471</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6259485540108471</v>
+        <v>1.508013137924422</v>
       </c>
       <c r="C17">
-        <v>0.05777031251214737</v>
+        <v>0.2032472941079249</v>
       </c>
       <c r="D17">
-        <v>0.2135809276675218</v>
+        <v>0.318415651632904</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.232023665938797</v>
+        <v>1.96023575703893</v>
       </c>
       <c r="G17">
-        <v>1.458891126888744</v>
+        <v>1.39837737152024</v>
       </c>
       <c r="H17">
-        <v>1.301481287784611</v>
+        <v>0.8478073109239119</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3930016364583082</v>
+        <v>0.6119201331612203</v>
       </c>
       <c r="K17">
-        <v>0.5969840849172385</v>
+        <v>1.577514891418701</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6157176263568829</v>
+        <v>1.468790410031318</v>
       </c>
       <c r="C18">
-        <v>0.05638696105530983</v>
+        <v>0.198230758261758</v>
       </c>
       <c r="D18">
-        <v>0.2117291303486724</v>
+        <v>0.3103588797034575</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.226963187692121</v>
+        <v>1.929275803824169</v>
       </c>
       <c r="G18">
-        <v>1.45526866263944</v>
+        <v>1.377153008745353</v>
       </c>
       <c r="H18">
-        <v>1.300942883787314</v>
+        <v>0.8398866624994241</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.389679795693624</v>
+        <v>0.5968797711880711</v>
       </c>
       <c r="K18">
-        <v>0.5861403921603596</v>
+        <v>1.536452054835991</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6122577463430048</v>
+        <v>1.455538180541225</v>
       </c>
       <c r="C19">
-        <v>0.05591862086781418</v>
+        <v>0.1965350805147636</v>
       </c>
       <c r="D19">
-        <v>0.2111038330342154</v>
+        <v>0.3076374261655843</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.225268694212389</v>
+        <v>1.918867692072695</v>
       </c>
       <c r="G19">
-        <v>1.454055448376664</v>
+        <v>1.370025446956333</v>
       </c>
       <c r="H19">
-        <v>1.300769806708018</v>
+        <v>0.8372353544283442</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3885588053477562</v>
+        <v>0.5918072883557812</v>
       </c>
       <c r="K19">
-        <v>0.5824723538829915</v>
+        <v>1.522576615193827</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6278440323041536</v>
+        <v>1.515285940135897</v>
       </c>
       <c r="C20">
-        <v>0.05802635816097279</v>
+        <v>0.2041771279255187</v>
       </c>
       <c r="D20">
-        <v>0.2139244558313749</v>
+        <v>0.3199098961044484</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.23296922634006</v>
+        <v>1.966001620021515</v>
       </c>
       <c r="G20">
-        <v>1.459567880041334</v>
+        <v>1.402333802182369</v>
       </c>
       <c r="H20">
-        <v>1.301585313400182</v>
+        <v>0.8492879191009308</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3936182064021523</v>
+        <v>0.6147134106281555</v>
       </c>
       <c r="K20">
-        <v>0.5989926462506219</v>
+        <v>1.585128184629014</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6804987291801581</v>
+        <v>1.718157734861705</v>
       </c>
       <c r="C21">
-        <v>0.0651107154722439</v>
+        <v>0.2300749877404797</v>
       </c>
       <c r="D21">
-        <v>0.2235186395430162</v>
+        <v>0.3616298925475405</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.260158542420655</v>
+        <v>2.129872865057635</v>
       </c>
       <c r="G21">
-        <v>1.479015653530752</v>
+        <v>1.515228515368392</v>
       </c>
       <c r="H21">
-        <v>1.304967084263779</v>
+        <v>0.8920238822957174</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.410877091456868</v>
+        <v>0.6931731655866713</v>
       </c>
       <c r="K21">
-        <v>0.654737767516707</v>
+        <v>1.797416736984104</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7151244960287784</v>
+        <v>1.852563444724609</v>
       </c>
       <c r="C22">
-        <v>0.0697426665928873</v>
+        <v>0.2471964835128801</v>
       </c>
       <c r="D22">
-        <v>0.2298761140578165</v>
+        <v>0.3893070619957939</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.278911939674046</v>
+        <v>2.241491549639122</v>
       </c>
       <c r="G22">
-        <v>1.492419273342136</v>
+        <v>1.592577377906366</v>
       </c>
       <c r="H22">
-        <v>1.307656284960331</v>
+        <v>0.9217744089480107</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.4223513292312617</v>
+        <v>0.7457080175504558</v>
       </c>
       <c r="K22">
-        <v>0.6913478069147345</v>
+        <v>1.937985468938621</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.6966246549787058</v>
+        <v>1.780646686751311</v>
       </c>
       <c r="C23">
-        <v>0.0672703356534754</v>
+        <v>0.2380384384445335</v>
       </c>
       <c r="D23">
-        <v>0.2264750569510738</v>
+        <v>0.374494389018281</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.268812747793262</v>
+        <v>2.181477076423022</v>
       </c>
       <c r="G23">
-        <v>1.485201894944225</v>
+        <v>1.550946398870423</v>
       </c>
       <c r="H23">
-        <v>1.306177133236844</v>
+        <v>0.9057193394775993</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.4162094598240031</v>
+        <v>0.7175447070067094</v>
       </c>
       <c r="K23">
-        <v>0.6717921663960169</v>
+        <v>1.862777822479188</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6269870260968275</v>
+        <v>1.511997435849082</v>
       </c>
       <c r="C24">
-        <v>0.05791060117502411</v>
+        <v>0.2037567031503755</v>
       </c>
       <c r="D24">
-        <v>0.2137691187601831</v>
+        <v>0.3192342388400249</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.232541402807882</v>
+        <v>1.963393533145052</v>
       </c>
       <c r="G24">
-        <v>1.459261683870722</v>
+        <v>1.400544038800405</v>
       </c>
       <c r="H24">
-        <v>1.30153811701004</v>
+        <v>0.8486179819119855</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3933393921664248</v>
+        <v>0.61345021799508</v>
       </c>
       <c r="K24">
-        <v>0.5980845285059218</v>
+        <v>1.581685749296724</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5527915296316905</v>
+        <v>1.228567354345245</v>
       </c>
       <c r="C25">
-        <v>0.04782319403092572</v>
+        <v>0.1674278193215599</v>
       </c>
       <c r="D25">
-        <v>0.2004395734313249</v>
+        <v>0.2610876791774928</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.197624519140916</v>
+        <v>1.744964264778162</v>
       </c>
       <c r="G25">
-        <v>1.434240561752958</v>
+        <v>1.251561827843517</v>
       </c>
       <c r="H25">
-        <v>1.298586275214603</v>
+        <v>0.7939014025161697</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.3695004628256129</v>
+        <v>0.5056870124875701</v>
       </c>
       <c r="K25">
-        <v>0.5193460679453494</v>
+        <v>1.284800822616916</v>
       </c>
       <c r="L25">
         <v>0</v>
